--- a/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
+++ b/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Base de Datos 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4615B-67B7-4FB9-9B9C-E30777E193E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2B53D-618B-41FB-9CFC-284EC7EC7893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>#</t>
   </si>
@@ -247,6 +258,27 @@
   </si>
   <si>
     <t>https://github.com/SDuque28/TalleresBasesDeDatos2</t>
+  </si>
+  <si>
+    <t>TALLER 4</t>
+  </si>
+  <si>
+    <t>TALLER 5</t>
+  </si>
+  <si>
+    <t>TALLER 6</t>
+  </si>
+  <si>
+    <t>TALLER 7</t>
+  </si>
+  <si>
+    <t>PARCIAL 1</t>
+  </si>
+  <si>
+    <t>TALLER 8</t>
+  </si>
+  <si>
+    <t>NOTA CORTE 1</t>
   </si>
 </sst>
 </file>
@@ -1127,27 +1159,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="52.85546875" customWidth="1"/>
-    <col min="8" max="8" width="35.5703125" customWidth="1"/>
-    <col min="9" max="9" width="56.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="52.88671875" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1220,29 @@
       <c r="M1" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="N1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1220,16 +1274,38 @@
         <v>67</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T2" s="1">
+        <f>SUM(K2:S2)</f>
+        <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1261,16 +1337,38 @@
         <v>68</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="1">
+        <f>SUM(K3:S3)</f>
+        <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -1302,16 +1400,38 @@
         <v>68</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T18" si="0">SUM(K4:S4)</f>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1343,16 +1463,38 @@
         <v>66</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -1384,16 +1526,38 @@
         <v>66</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -1425,16 +1589,38 @@
         <v>67</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -1466,16 +1652,38 @@
         <v>71</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -1507,16 +1715,38 @@
         <v>71</v>
       </c>
       <c r="K9" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -1548,16 +1778,38 @@
         <v>67</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -1589,16 +1841,38 @@
         <v>69</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M11" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -1630,16 +1904,38 @@
         <v>70</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M12" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -1671,16 +1967,38 @@
         <v>71</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -1712,16 +2030,38 @@
         <v>66</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>22</v>
       </c>
@@ -1753,16 +2093,38 @@
         <v>71</v>
       </c>
       <c r="K15" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="M15" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>23</v>
       </c>
@@ -1794,16 +2156,38 @@
         <v>69</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>24</v>
       </c>
@@ -1835,16 +2219,38 @@
         <v>67</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="M17" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>25</v>
       </c>
@@ -1872,15 +2278,39 @@
       <c r="I18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="1">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
+++ b/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Base de Datos 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2B53D-618B-41FB-9CFC-284EC7EC7893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EB266-CBCB-4754-8FD9-9D7D6B4AB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE1" sheetId="1" r:id="rId1"/>
+    <sheet name="CORTE2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORTE1!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CORTE2!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -279,6 +281,36 @@
   </si>
   <si>
     <t>NOTA CORTE 1</t>
+  </si>
+  <si>
+    <t>TALLER 9</t>
+  </si>
+  <si>
+    <t>TALLER 10</t>
+  </si>
+  <si>
+    <t>TALLER 11</t>
+  </si>
+  <si>
+    <t>TALLER 12</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>Revisado hasta el taller 12 el 4 de octubre</t>
+  </si>
+  <si>
+    <t>Subido taller 9 y 10 el 6 de octubre</t>
+  </si>
+  <si>
+    <t>No se ve subido ningun taller 10 de octubre</t>
+  </si>
+  <si>
+    <t>No subio taller 9, 10, 11, revision del 10 de octubre.</t>
+  </si>
+  <si>
+    <t>No subio taller 10, 11, 12, revision del 10 de cotubre</t>
   </si>
 </sst>
 </file>
@@ -1161,26 +1193,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="52.88671875" customWidth="1"/>
-    <col min="8" max="8" width="35.5546875" customWidth="1"/>
-    <col min="9" max="9" width="56.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="56.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1305,7 +1337,7 @@
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1368,7 +1400,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -1431,7 +1463,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1494,7 +1526,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -1557,7 +1589,7 @@
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -1620,7 +1652,7 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -1746,7 +1778,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -1809,7 +1841,7 @@
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>17</v>
       </c>
@@ -1910,7 +1942,7 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="N12" s="1">
         <v>0.1</v>
@@ -1932,10 +1964,10 @@
       </c>
       <c r="T12" s="1">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -1998,7 +2030,7 @@
         <v>4.8999999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2061,7 +2093,7 @@
         <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>22</v>
       </c>
@@ -2124,7 +2156,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>23</v>
       </c>
@@ -2187,7 +2219,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>24</v>
       </c>
@@ -2250,7 +2282,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>25</v>
       </c>
@@ -2336,4 +2368,815 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8869E9-0E31-469A-8D07-B9FE93F5A874}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="52.85546875" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" customWidth="1"/>
+    <col min="9" max="9" width="61.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1082838843</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10202200124</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1125292039</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10202150097</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1002608919</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10202150093</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1022322054</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10202200135</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1004367716</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10202200118</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1055751017</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10202200132</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1006739967</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10202350228</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1002545071</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10202050004</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1056121086</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10202200137</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1055358686</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10202200144</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1055750429</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10202200121</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1054857572</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10202200129</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1091354977</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10202200125</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1002609206</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10202200145</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1056120961</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10202200123</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1020</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1053764060</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10202100067</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1054398870</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10302400076</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{58DB7242-3138-45EA-9270-18A4CAE6C3EE}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{57DD7B56-DE38-40AE-BAF5-70E19A04A47B}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{C194C90C-5A29-4804-A308-BBBC5AAF14BF}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{6596DA15-C30D-4F36-B497-81C282C33669}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{4B9748CC-291D-4A2E-B2BD-F724F567385C}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{67DB1EF7-2BCC-4B13-BE6D-C27481EBE6BF}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{501E7F3E-A020-4F66-ACC1-51E5B4C20BEC}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{B8EABCB3-A790-4326-8197-FC24DF2DD307}"/>
+    <hyperlink ref="I6" r:id="rId9" xr:uid="{04364452-A55B-41F1-84A0-C7820A506345}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{67408D5F-9290-4CFA-918F-769FBDAB8C4C}"/>
+    <hyperlink ref="I17" r:id="rId11" xr:uid="{BFB23880-EC0D-4A95-B263-7CBBB6AF7866}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{B34910EB-4D41-44F6-BE78-B10ACD90A0FA}"/>
+    <hyperlink ref="I4" r:id="rId13" xr:uid="{BCBFADF1-693B-432D-9493-F57CD822DAE0}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{23D873CF-B2DE-4A4B-8E20-ABACD665971B}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{2C0908EB-8001-40CF-93E5-98FEFA878B90}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{7758CBD9-307F-4E8F-8EE7-4AB835D0ABEB}"/>
+    <hyperlink ref="I15" r:id="rId17" xr:uid="{CC9C0089-22F1-4DE6-BEA6-49673E543C31}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
+++ b/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaaguir\Documents\Desarrollo\Curso Base de Datos 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EB266-CBCB-4754-8FD9-9D7D6B4AB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D7FBA2-80AA-4AE5-AE4B-F4CAEE02ECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CORTE1" sheetId="1" r:id="rId1"/>
     <sheet name="CORTE2" sheetId="2" r:id="rId2"/>
+    <sheet name="CORTE3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CORTE1!$A$1:$I$18</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -295,9 +296,6 @@
     <t>TALLER 12</t>
   </si>
   <si>
-    <t>NOTA</t>
-  </si>
-  <si>
     <t>Revisado hasta el taller 12 el 4 de octubre</t>
   </si>
   <si>
@@ -307,10 +305,67 @@
     <t>No se ve subido ningun taller 10 de octubre</t>
   </si>
   <si>
-    <t>No subio taller 9, 10, 11, revision del 10 de octubre.</t>
-  </si>
-  <si>
     <t>No subio taller 10, 11, 12, revision del 10 de cotubre</t>
+  </si>
+  <si>
+    <t>TALLER 13</t>
+  </si>
+  <si>
+    <t>TALLER 14</t>
+  </si>
+  <si>
+    <t>TALLER 15</t>
+  </si>
+  <si>
+    <t>TALLER 16</t>
+  </si>
+  <si>
+    <t>PARCIAL 2</t>
+  </si>
+  <si>
+    <t>NOTA CORTE 2</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>EQUIPO</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>PARCIAL CORTE 3</t>
+  </si>
+  <si>
+    <t>2 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>PRESENTACION PROYECTO</t>
+  </si>
+  <si>
+    <t>ULTIMO DIA PARA TALLERES</t>
+  </si>
+  <si>
+    <t>6 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>9 DE DICIEMBRE</t>
+  </si>
+  <si>
+    <t>NOTA PARCIAL</t>
+  </si>
+  <si>
+    <t>NOTA PROYECTO</t>
+  </si>
+  <si>
+    <t>EVENTO IA</t>
   </si>
 </sst>
 </file>
@@ -669,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -810,6 +865,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -856,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +932,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1193,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J18" sqref="G1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8869E9-0E31-469A-8D07-B9FE93F5A874}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,10 +2465,10 @@
     <col min="9" max="9" width="61.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2434,11 +2508,29 @@
       <c r="M1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2473,16 +2565,35 @@
         <v>0.1</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <f>SUM(J2:R2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2522,11 +2633,30 @@
       <c r="M3" s="1">
         <v>0.1</v>
       </c>
-      <c r="N3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S18" si="0">SUM(J3:R3)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2555,47 +2685,66 @@
         <v>59</v>
       </c>
       <c r="J4" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K4" s="1">
         <v>0.1</v>
       </c>
       <c r="L4" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M4" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="T4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>1020</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>1022322054</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>10202200135</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="1">
@@ -2610,8 +2759,27 @@
       <c r="M5" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7</v>
       </c>
@@ -2651,8 +2819,27 @@
       <c r="M6" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -2692,8 +2879,27 @@
       <c r="M7" s="1">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -2733,11 +2939,30 @@
       <c r="M8" s="1">
         <v>-0.1</v>
       </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="T8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -2777,8 +3002,27 @@
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -2818,8 +3062,27 @@
       <c r="M10" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -2859,33 +3122,52 @@
       <c r="M11" s="1">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="N11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="7">
         <v>1020</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="7">
         <v>1055750429</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="7">
         <v>10202200121</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J12" s="1">
@@ -2900,8 +3182,27 @@
       <c r="M12" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>19</v>
       </c>
@@ -2933,19 +3234,38 @@
         <v>-0.1</v>
       </c>
       <c r="K13" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M13" s="1">
         <v>-0.1</v>
       </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>20</v>
       </c>
@@ -2977,19 +3297,38 @@
         <v>0.1</v>
       </c>
       <c r="K14" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L14" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M14" s="1">
-        <v>-0.1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="T14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>22</v>
       </c>
@@ -3029,8 +3368,27 @@
       <c r="M15" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>23</v>
       </c>
@@ -3070,8 +3428,27 @@
       <c r="M16" s="1">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>24</v>
       </c>
@@ -3111,8 +3488,27 @@
       <c r="M17" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>25</v>
       </c>
@@ -3141,10 +3537,10 @@
         <v>46</v>
       </c>
       <c r="J18" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="1">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="1">
         <v>-0.1</v>
@@ -3152,30 +3548,599 @@
       <c r="M18" s="1">
         <v>0.1</v>
       </c>
-      <c r="N18" t="s">
-        <v>88</v>
+      <c r="N18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I18" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="I18" r:id="rId1" xr:uid="{58DB7242-3138-45EA-9270-18A4CAE6C3EE}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{57DD7B56-DE38-40AE-BAF5-70E19A04A47B}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{C194C90C-5A29-4804-A308-BBBC5AAF14BF}"/>
-    <hyperlink ref="I11" r:id="rId4" xr:uid="{6596DA15-C30D-4F36-B497-81C282C33669}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{4B9748CC-291D-4A2E-B2BD-F724F567385C}"/>
-    <hyperlink ref="I16" r:id="rId6" xr:uid="{67DB1EF7-2BCC-4B13-BE6D-C27481EBE6BF}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{501E7F3E-A020-4F66-ACC1-51E5B4C20BEC}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{B8EABCB3-A790-4326-8197-FC24DF2DD307}"/>
-    <hyperlink ref="I6" r:id="rId9" xr:uid="{04364452-A55B-41F1-84A0-C7820A506345}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{67408D5F-9290-4CFA-918F-769FBDAB8C4C}"/>
-    <hyperlink ref="I17" r:id="rId11" xr:uid="{BFB23880-EC0D-4A95-B263-7CBBB6AF7866}"/>
-    <hyperlink ref="I13" r:id="rId12" xr:uid="{B34910EB-4D41-44F6-BE78-B10ACD90A0FA}"/>
-    <hyperlink ref="I4" r:id="rId13" xr:uid="{BCBFADF1-693B-432D-9493-F57CD822DAE0}"/>
-    <hyperlink ref="I7" r:id="rId14" xr:uid="{23D873CF-B2DE-4A4B-8E20-ABACD665971B}"/>
-    <hyperlink ref="I8" r:id="rId15" xr:uid="{2C0908EB-8001-40CF-93E5-98FEFA878B90}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{7758CBD9-307F-4E8F-8EE7-4AB835D0ABEB}"/>
-    <hyperlink ref="I15" r:id="rId17" xr:uid="{CC9C0089-22F1-4DE6-BEA6-49673E543C31}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{C194C90C-5A29-4804-A308-BBBC5AAF14BF}"/>
+    <hyperlink ref="I11" r:id="rId3" xr:uid="{6596DA15-C30D-4F36-B497-81C282C33669}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{4B9748CC-291D-4A2E-B2BD-F724F567385C}"/>
+    <hyperlink ref="I16" r:id="rId5" xr:uid="{67DB1EF7-2BCC-4B13-BE6D-C27481EBE6BF}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{501E7F3E-A020-4F66-ACC1-51E5B4C20BEC}"/>
+    <hyperlink ref="I12" r:id="rId7" xr:uid="{B8EABCB3-A790-4326-8197-FC24DF2DD307}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{04364452-A55B-41F1-84A0-C7820A506345}"/>
+    <hyperlink ref="I14" r:id="rId9" xr:uid="{67408D5F-9290-4CFA-918F-769FBDAB8C4C}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{BFB23880-EC0D-4A95-B263-7CBBB6AF7866}"/>
+    <hyperlink ref="I13" r:id="rId11" xr:uid="{B34910EB-4D41-44F6-BE78-B10ACD90A0FA}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{BCBFADF1-693B-432D-9493-F57CD822DAE0}"/>
+    <hyperlink ref="I7" r:id="rId13" xr:uid="{23D873CF-B2DE-4A4B-8E20-ABACD665971B}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{2C0908EB-8001-40CF-93E5-98FEFA878B90}"/>
+    <hyperlink ref="I9" r:id="rId15" xr:uid="{7758CBD9-307F-4E8F-8EE7-4AB835D0ABEB}"/>
+    <hyperlink ref="I15" r:id="rId16" xr:uid="{CC9C0089-22F1-4DE6-BEA6-49673E543C31}"/>
+    <hyperlink ref="I3" r:id="rId17" xr:uid="{57DD7B56-DE38-40AE-BAF5-70E19A04A47B}"/>
+    <hyperlink ref="H12" r:id="rId18" xr:uid="{5275E09E-8B8F-4831-B897-0FAC06288B2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AC3FDA-D203-43CA-916D-E50AF3BCE310}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{645C4BF6-FDAE-460D-A68C-F33389E4F4E4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7766B277-1F3C-4352-BEBD-231B97D04811}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{E2FC0993-A022-45BA-A49B-F024AEDB1C9D}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{5524DE44-EFEE-4261-8D63-295BF9367894}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{B22CAA25-6395-4179-9BE0-6DAEBEDB1C95}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{0CCBF6BB-9CB4-4088-A8B3-E93D20750746}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{C4E39018-BC96-42DF-89FD-41B6D04C4808}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{28918E42-EAAE-4472-BA6D-028BD6646FDC}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{605E498E-F57F-4BFE-8FFB-01EF06D16304}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{9DAD827C-FB92-45C6-A722-29AFDE6A36E4}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{11F5609B-DCD1-4F14-88F9-B60BBD6AC747}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{1EDA9650-4F89-4108-A782-02BC175B69C8}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{2D09949D-6C02-4161-B60B-3535C3CB9147}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{26827309-AB6F-42EC-9479-4878A5004955}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{A967DC71-978E-4E41-B9E7-915074AF464C}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{D739398D-94B8-49E0-BBBE-707FFBA564DA}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{59B4C873-2DA5-465F-8D41-D06B92250F84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
+++ b/Curso Base de Datos 2/ESTUDIANTES DE BASES DE DATOS 2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -312,10 +312,16 @@
     <t>NOTA PROYECTO</t>
   </si>
   <si>
+    <t>TALLERES</t>
+  </si>
+  <si>
     <t>NOTA PARCIAL</t>
   </si>
   <si>
     <t>EVENTO IA</t>
+  </si>
+  <si>
+    <t>NOTA CORTE</t>
   </si>
   <si>
     <t>NO</t>
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -476,12 +482,16 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5011,7 +5021,7 @@
     <col customWidth="1" min="2" max="2" width="39.86"/>
     <col customWidth="1" min="3" max="3" width="52.29"/>
     <col customWidth="1" min="4" max="4" width="25.43"/>
-    <col customWidth="1" min="5" max="26" width="10.71"/>
+    <col customWidth="1" min="5" max="27" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5036,11 +5046,17 @@
       <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -5050,7 +5066,7 @@
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -5060,16 +5076,23 @@
         <v>2.0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G2" s="5">
         <v>5.0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="12">
         <v>4.5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K2" s="13">
+        <f t="shared" ref="K2:K18" si="1">((G2+H2+I2)/3) +J2</f>
+        <v>4.833333333</v>
       </c>
     </row>
     <row r="3">
@@ -5079,7 +5102,7 @@
       <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -5089,16 +5112,23 @@
         <v>7.0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" s="5">
         <v>4.6</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="12">
         <v>5.0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="J3" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" si="1"/>
+        <v>4.866666667</v>
       </c>
     </row>
     <row r="4">
@@ -5108,7 +5138,7 @@
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5118,16 +5148,23 @@
         <v>7.0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="5">
         <v>4.6</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="12">
         <v>4.5</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
       </c>
     </row>
     <row r="5">
@@ -5137,7 +5174,7 @@
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -5147,16 +5184,23 @@
         <v>4.0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G5" s="5">
         <v>4.8</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I5" s="12">
         <v>4.0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -5166,7 +5210,7 @@
       <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -5176,16 +5220,23 @@
         <v>4.0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G6" s="5">
         <v>4.8</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="12">
         <v>5.0</v>
       </c>
-      <c r="I6" s="5">
-        <v>0.0</v>
+      <c r="I6" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="1"/>
+        <v>5.233333333</v>
       </c>
     </row>
     <row r="7">
@@ -5195,7 +5246,7 @@
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -5205,16 +5256,23 @@
         <v>2.0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G7" s="5">
         <v>5.0</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I7" s="12">
         <v>4.5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="1"/>
+        <v>5.133333333</v>
       </c>
     </row>
     <row r="8">
@@ -5224,7 +5282,7 @@
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -5234,16 +5292,23 @@
         <v>3.0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" s="5">
         <v>4.9</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="12">
         <v>4.0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="1"/>
+        <v>4.633333333</v>
       </c>
     </row>
     <row r="9">
@@ -5253,7 +5318,7 @@
       <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -5263,16 +5328,23 @@
         <v>5.0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5">
         <v>4.8</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I9" s="12">
         <v>4.0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
       </c>
     </row>
     <row r="10">
@@ -5282,7 +5354,7 @@
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5292,16 +5364,23 @@
         <v>2.0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="5">
         <v>5.0</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I10" s="12">
         <v>4.0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>4.666666667</v>
       </c>
     </row>
     <row r="11">
@@ -5311,7 +5390,7 @@
       <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -5321,16 +5400,23 @@
         <v>6.0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G11" s="5">
         <v>4.8</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>5.0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.233333333</v>
       </c>
     </row>
     <row r="12">
@@ -5340,7 +5426,7 @@
       <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5350,16 +5436,23 @@
         <v>6.0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G12" s="5">
         <v>4.8</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I12" s="12">
         <v>4.0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
@@ -5369,7 +5462,7 @@
       <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -5379,16 +5472,23 @@
         <v>3.0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="5">
         <v>4.9</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I13" s="12">
         <v>4.0</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>4.933333333</v>
       </c>
     </row>
     <row r="14">
@@ -5398,7 +5498,7 @@
       <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -5408,16 +5508,23 @@
         <v>4.0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G14" s="5">
         <v>4.8</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I14" s="12">
         <v>4.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>0.3</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>5.066666667</v>
       </c>
     </row>
     <row r="15">
@@ -5427,7 +5534,7 @@
       <c r="B15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -5437,16 +5544,23 @@
         <v>5.0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G15" s="5">
         <v>4.8</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="12">
         <v>4.0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
       </c>
     </row>
     <row r="16">
@@ -5456,7 +5570,7 @@
       <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -5466,16 +5580,23 @@
         <v>6.0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G16" s="5">
         <v>4.8</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <v>5.0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="J16" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
+        <v>4.933333333</v>
       </c>
     </row>
     <row r="17">
@@ -5485,7 +5606,7 @@
       <c r="B17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -5495,16 +5616,23 @@
         <v>1.0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5">
         <v>4.5</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I17" s="12">
         <v>4.0</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18">
@@ -5514,7 +5642,7 @@
       <c r="B18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5524,40 +5652,47 @@
         <v>8.0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G18" s="5">
         <v>4.8</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
+        <v>5.0</v>
+      </c>
+      <c r="I18" s="12">
         <v>4.0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>0.0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
